--- a/Experiments_Tracking/Experiments Tracking.xlsx
+++ b/Experiments_Tracking/Experiments Tracking.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Experiment Name</t>
   </si>
@@ -114,13 +114,184 @@
   </si>
   <si>
     <t>{'colsample_bylevel': 0.5903981459037352, 'colsample_bynode': 0.7094027074173462, 'colsample_bytree': 0.906829959553758, 'eta': 0.8898819502869164, 'gamma': 0.11356530749569815, 'max_delta_step': 0, 'max_depth': 16, 'min_child_weight': 0, 'n_estimators': 8, 'reg_alpha': 3.1320312562102997, 'reg_lambda': 0.4010744536271056, 'subsample': 0.9551027615573573}</t>
+  </si>
+  <si>
+    <t>best loss: 0.26051085711059585</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.7455533022228336, 'colsample_bynode': 0.793020991514099, 'colsample_bytree': 0.5950991304033216, 'eta': 0.6600602844019166, 'gamma': 0.013281887940848613, 'max_depth': 7, 'n_estimators': 52}</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9814621844875562, 'colsample_bynode': 0.9122679585172969, 'colsample_bytree': 0.8123856498329347, 'eta': 0.3851193732318767, 'gamma': 0.0007409792631630774, 'max_depth': 4, 'n_estimators': 15}</t>
+  </si>
+  <si>
+    <t>best loss: 0.30783278749999976</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.5690275023439757, 'colsample_bynode': 0.7457229285234792, 'colsample_bytree': 0.643686775757245, 'eta': 0.7005064059890597, 'gamma': 0.10878442684696088, 'max_depth': 10, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>best loss: 0.25053696894226096</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.5997643417480576, 'colsample_bynode': 0.6721604456749122, 'colsample_bytree': 0.7711350424042631, 'eta': 0.8302236807050379, 'gamma': 0.006844982031449662, 'max_depth': 10, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>best loss: 0.21844142199096694</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.6277116267761833, 'colsample_bynode': 0.6939176468628331, 'colsample_bytree': 0.713767741467592, 'eta': 0.6651075477908979, 'gamma': 0.027942846140338984, 'max_depth': 9, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>best loss: 0.26355033182678245</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.5458849076484141, 'colsample_bynode': 0.5713163058886203, 'colsample_bytree': 0.7510305527646457, 'eta': 0.7117427316302114, 'gamma': 0.026098213148191884, 'max_depth': 4, 'n_estimators': 21}</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.8695867126475347, 'colsample_bynode': 0.7514009063786289, 'colsample_bytree': 0.7080262423480193, 'eta': 0.7922741525432192, 'gamma': 0.0914666738672244, 'max_depth': 10, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>best loss: 0.28061909937438934</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.691100929621779, 'colsample_bynode': 0.620010040503449, 'colsample_bytree': 0.6193144487125, 'eta': 0.9447255326475583, 'gamma': 0.06606801569300891, 'max_depth': 3, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>best loss: 0.2713939692932126</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.8763316421060382, 'colsample_bynode': 0.8206527462926041, 'colsample_bytree': 0.7573827285291406, 'eta': 0.7738591534659458, 'gamma': 0.05827079353240751, 'max_depth': 11, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>best loss: 0.30783278749999976]</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9229116442573286, 'colsample_bynode': 0.9594820099455419, 'colsample_bytree': 0.738236597650454, 'eta': 0.840729735003339, 'gamma': 0.3122529331684506, 'max_depth': 8, 'n_estimators': 3}</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.8421054775087835, 'colsample_bynode': 0.7305531793523634, 'colsample_bytree': 0.8881761014172018, 'eta': 0.914232163668803, 'gamma': 0.05491409971363359, 'max_depth': 11, 'n_estimators': 2}</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9255579887322157, 'colsample_bynode': 0.8870326075496872, 'colsample_bytree': 0.9480217268954076, 'eta': 0.9973518064238235, 'gamma': 0.3099828141115135, 'max_depth': 9, 'n_estimators': 3}</t>
+  </si>
+  <si>
+    <t>best loss: 0.5146940035156251</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.8942960447618264, 'colsample_bynode': 0.8634937829536946, 'colsample_bytree': 0.9414160083547407, 'eta': 0.7040608738805098, 'gamma': 0.0012480258646070386, 'max_depth': 5, 'n_estimators': 3}</t>
+  </si>
+  <si>
+    <t>best loss: 0.5496855062774659</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9979789612482567, 'colsample_bynode': 0.8150571028767766, 'colsample_bytree': 0.935612767999212, 'eta': 0.44251319487089363, 'gamma': 0.0003126083189616478, 'max_depth': 16, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>best loss: 0.5206220430664064</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.8701670845144568, 'colsample_bynode': 0.9412410243559226, 'colsample_bytree': 0.992826434879996, 'eta': 0.8179023342633753, 'gamma': 0.0037146337654369093, 'max_depth': 4, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>best loss: 0.5264537615112306</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.887548614071821, 'colsample_bynode': 0.9116077845665346, 'colsample_bytree': 0.8873660074128757, 'eta': 0.43308404838883746, 'gamma': 0.0003460196730378281, 'max_depth': 9, 'n_estimators': 4}</t>
+  </si>
+  <si>
+    <t>best loss: 0.503331927709961</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9122072221753499, 'colsample_bynode': 0.9907110919058448, 'colsample_bytree': 0.9409710696948951, 'eta': 0.793558212435006, 'gamma': 0.0014840556566089575, 'max_depth': 3, 'n_estimators': 0}</t>
+  </si>
+  <si>
+    <t>best loss: 0.5721099657348634</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.99889777709038, 'colsample_bynode': 0.9329626969225779, 'colsample_bytree': 0.8417670546770625, 'eta': 0.3013209634126781, 'gamma': 0.0040369919128523625, 'max_depth': 28, 'n_estimators': 3}</t>
+  </si>
+  <si>
+    <t>best loss: 0.5994172376922609</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9254669166878213, 'colsample_bynode': 0.9394798449149363, 'colsample_bytree': 0.8466266106986634, 'eta': 0.1347380705054294, 'gamma': 0.00019513930305672424, 'max_depth': 8, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.7354020525662055, 'colsample_bynode': 0.8711304195191856, 'colsample_bytree': 0.8315033631361093, 'eta': 0.052764264604263096, 'gamma': 0.8069286064052699, 'max_depth': 61, 'n_estimators': 1}</t>
+  </si>
+  <si>
+    <t>{'colsample_bylevel': 0.9028739548580075, 'colsample_bynode': 0.8712259403107291, 'colsample_bytree': 0.991982054406717, 'eta': 0.07819105291999529, 'gamma': 0.6817416296658667, 'max_depth': 19, 'n_estimators': 0}</t>
+  </si>
+  <si>
+    <t>best loss: 1.0538844625000006</t>
+  </si>
+  <si>
+    <t>{'max_depth': 13.0, 'max_leaf_nodes': 10.0, 'min_samples_leaf': 3.0, 'min_samples_split': 6.0}</t>
+  </si>
+  <si>
+    <t>best loss: 0.47488446249999994</t>
+  </si>
+  <si>
+    <t>{'max_depth': 8.0, 'max_leaf_nodes': 4.0, 'min_samples_leaf': 1.0, 'min_samples_split': 2.0}</t>
+  </si>
+  <si>
+    <t>best loss: 1.0538844625000006]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'max_depth': 18.0, 'max_leaf_nodes': 9.0, 'min_samples_leaf': 4.0, 'min_samples_split': 3.0} </t>
+  </si>
+  <si>
+    <t>{'max_depth': 13.0, 'max_leaf_nodes': 4.0, 'min_samples_leaf': 1.0, 'min_samples_split': 3.0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3.0, 'max_leaf_nodes': 7.0, 'min_samples_leaf': 1.0, 'min_samples_split': 2.0}</t>
+  </si>
+  <si>
+    <t>best loss: 0.7161344625000008</t>
+  </si>
+  <si>
+    <t>{'max_depth': 13.0, 'max_leaf_nodes': 3.0, 'min_samples_leaf': 1.0, 'min_samples_split': 3.0}</t>
+  </si>
+  <si>
+    <t>best loss: 0.32628678749999995</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15.0, 'max_leaf_nodes': 3.0, 'min_samples_leaf': 1.0, 'min_samples_split': 2.0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 6.0, 'max_leaf_nodes': 6.0, 'min_samples_leaf': 6.0, 'min_samples_split': 3.0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 10.0, 'max_leaf_nodes': 7.0, 'min_samples_leaf': 2.0, 'min_samples_split': 9.0}</t>
+  </si>
+  <si>
+    <t>best loss: 0.3745367875000003</t>
+  </si>
+  <si>
+    <t>{'max_depth': 3.0, 'max_leaf_nodes': 7.0, 'min_samples_leaf': 2.0, 'min_samples_split': 2.0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 6.0, 'max_leaf_nodes': 4.0, 'min_samples_leaf': 6.0, 'min_samples_split': 11.0}</t>
+  </si>
+  <si>
+    <t>best loss: 0.3504117874999999</t>
+  </si>
+  <si>
+    <t>{'max_depth': 13.0, 'max_leaf_nodes': 4.0, 'min_samples_leaf': 1.0, 'min_samples_split': 2.0}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 14.0, 'max_leaf_nodes': 7.0, 'min_samples_leaf': 5.0, 'min_samples_split': 5.0}</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -139,12 +310,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,8 +332,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--notebook-cell-output-font"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -229,67 +424,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,277 +771,801 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" ht="13.2">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7" ht="13.2">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="25">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="13.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="13.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="13.2">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="10" customFormat="1" ht="13.8">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="10" customFormat="1" ht="13.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="10" customFormat="1" ht="13.2">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="13.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="10" customFormat="1" ht="13.2">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="10" customFormat="1" ht="13.2">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="10" customFormat="1" ht="13.2">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="13.2">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="13.2">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="13.2">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="2:7" ht="13.2">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="2:7" ht="13.2">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="13.2">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.2">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="13.2">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="13.2">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="13.2">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="22" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F58" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="23" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F59" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="25" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E60" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="16"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="17"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A64" s="17"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="16"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A66" s="16"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A67" s="17"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A68" s="17"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -785,62 +1575,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E24:AM32"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="106.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="24" spans="5:39" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="18"/>
-      <c r="AM24" s="18"/>
-    </row>
-    <row r="32" spans="5:39" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E32" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments_Tracking/Experiments Tracking.xlsx
+++ b/Experiments_Tracking/Experiments Tracking.xlsx
@@ -773,8 +773,8 @@
   </sheetPr>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
